--- a/src/test/resources/showcase/artifact/data/sqs-showcase.data.xlsx
+++ b/src/test/resources/showcase/artifact/data/sqs-showcase.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0D4FB5-0E53-D84D-B8CF-DB826F976CAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D21AB1-63ED-834F-8ED1-61115F1546C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31880" yWindow="-21160" windowWidth="12800" windowHeight="21160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27320" yWindow="440" windowWidth="13640" windowHeight="25160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:AAA196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>

--- a/src/test/resources/showcase/artifact/data/sqs-showcase.data.xlsx
+++ b/src/test/resources/showcase/artifact/data/sqs-showcase.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D21AB1-63ED-834F-8ED1-61115F1546C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC3F7A9-DAC4-F342-AD77-EB458071D951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27320" yWindow="440" windowWidth="13640" windowHeight="25160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27320" yWindow="460" windowWidth="13640" windowHeight="25160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>true</t>
   </si>
@@ -96,7 +96,10 @@
     <t>5000</t>
   </si>
   <si>
-    <t>...</t>
+    <t>crypt:ENCRYPT_YOUR_ACCESS_KEY_AND_COPY_IT_HERE</t>
+  </si>
+  <si>
+    <t>crypt:ENCRYPT_YOUR_SECRET_KEY_AND_COPY_IT_HERE</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
